--- a/disk-archive-data/xls/Books.xlsx
+++ b/disk-archive-data/xls/Books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="71">
   <si>
     <t>Мигель де Сервантес Сааведра</t>
   </si>
@@ -210,13 +210,25 @@
     <t>Поэзия</t>
   </si>
   <si>
-    <t>Год издания (начало)</t>
-  </si>
-  <si>
-    <t>Год издания (завершение)</t>
-  </si>
-  <si>
     <t>Украинский Советский Энциклопедический словарь</t>
+  </si>
+  <si>
+    <t>Ф.С. Бабичев, Р.И. Вишневский, И.А. Дзеверин, М.П. Зяблюк, Ю.Ю. Кондуфор, А.В. Кудрицкий, А.М. Лопухов, И.И. Лукинов, А.М. Маринич, А.П. Ромоданов, А.И. Троян</t>
+  </si>
+  <si>
+    <t>Ф.С. Бабичев, Р.И. Вишневский, И.А. Дзеверин, М.П. Зяблюк, Ю.Ю. Кондуфор, А.В. Кудрицкий, А.М. Лопухов, И.И. Лукинов, А.М. Маринич, А.П. Ромоданов</t>
+  </si>
+  <si>
+    <t>Год издания</t>
+  </si>
+  <si>
+    <t>Количество томов в год</t>
+  </si>
+  <si>
+    <t>38A</t>
+  </si>
+  <si>
+    <t>Том (старая маркировка)</t>
   </si>
 </sst>
 </file>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +580,11 @@
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -585,13 +598,16 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +624,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -625,7 +641,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -642,7 +658,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -659,7 +675,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -676,7 +692,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -693,7 +709,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -710,7 +726,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -727,7 +743,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -744,7 +760,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -761,7 +777,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -778,7 +794,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -795,7 +811,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -812,7 +828,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -829,7 +845,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1094,6 +1110,9 @@
       <c r="C31">
         <v>2</v>
       </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
       <c r="E31">
         <v>1978</v>
       </c>
@@ -1108,6 +1127,9 @@
       <c r="C32">
         <v>3</v>
       </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
       <c r="E32">
         <v>1978</v>
       </c>
@@ -1122,6 +1144,9 @@
       <c r="C33">
         <v>4</v>
       </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
       <c r="E33">
         <v>1978</v>
       </c>
@@ -1136,6 +1161,9 @@
       <c r="C34">
         <v>5</v>
       </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
       <c r="E34">
         <v>1978</v>
       </c>
@@ -1150,6 +1178,9 @@
       <c r="C35">
         <v>6</v>
       </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
       <c r="E35">
         <v>1978</v>
       </c>
@@ -1164,6 +1195,9 @@
       <c r="C36">
         <v>7</v>
       </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
       <c r="E36">
         <v>1978</v>
       </c>
@@ -3004,7 +3038,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -3021,7 +3055,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3072,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -3055,7 +3089,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -3072,7 +3106,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -3089,7 +3123,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -3106,7 +3140,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>40</v>
       </c>
@@ -3123,7 +3157,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -3140,7 +3174,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3191,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -3174,7 +3208,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3191,7 +3225,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3242,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -3216,13 +3250,22 @@
         <v>41</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>86</v>
       </c>
       <c r="E157">
         <v>1891</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -3230,13 +3273,22 @@
         <v>41</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D158">
+        <v>86</v>
       </c>
       <c r="E158">
         <v>1893</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>11</v>
+      </c>
+      <c r="G158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3244,13 +3296,22 @@
         <v>41</v>
       </c>
       <c r="C159">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="D159">
+        <v>86</v>
       </c>
       <c r="E159">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1898</v>
+      </c>
+      <c r="F159">
+        <v>23</v>
+      </c>
+      <c r="G159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -3258,10 +3319,22 @@
         <v>41</v>
       </c>
       <c r="C160">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D160">
+        <v>86</v>
+      </c>
+      <c r="E160">
+        <v>1900</v>
+      </c>
+      <c r="F160">
+        <v>29</v>
+      </c>
+      <c r="G160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -3269,13 +3342,22 @@
         <v>41</v>
       </c>
       <c r="C161">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="D161">
+        <v>86</v>
       </c>
       <c r="E161">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+      <c r="F161">
+        <v>34</v>
+      </c>
+      <c r="G161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -3285,11 +3367,20 @@
       <c r="C162">
         <v>71</v>
       </c>
+      <c r="D162">
+        <v>86</v>
+      </c>
       <c r="E162">
         <v>1902</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>36</v>
+      </c>
+      <c r="G162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -3299,11 +3390,20 @@
       <c r="C163">
         <v>76</v>
       </c>
+      <c r="D163">
+        <v>86</v>
+      </c>
       <c r="E163">
         <v>1903</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>69</v>
+      </c>
+      <c r="G163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3420,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -3337,7 +3437,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3354,7 +3454,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -3365,7 +3465,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -3382,7 +3482,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -3399,7 +3499,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -3410,7 +3510,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>53</v>
       </c>
@@ -3421,7 +3521,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -3432,7 +3532,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -3443,7 +3543,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>59</v>
       </c>
@@ -3454,7 +3554,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>61</v>
       </c>
@@ -3462,7 +3562,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -3473,9 +3573,12 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>65</v>
+      </c>
       <c r="B177" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3484,15 +3587,15 @@
         <v>3</v>
       </c>
       <c r="E177">
-        <v>1986</v>
-      </c>
-      <c r="F177">
         <v>1988</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
       <c r="B178" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -3501,15 +3604,15 @@
         <v>3</v>
       </c>
       <c r="E178">
-        <v>1986</v>
-      </c>
-      <c r="F178">
         <v>1988</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -3518,9 +3621,6 @@
         <v>3</v>
       </c>
       <c r="E179">
-        <v>1986</v>
-      </c>
-      <c r="F179">
         <v>1988</v>
       </c>
     </row>

--- a/disk-archive-data/xls/Books.xlsx
+++ b/disk-archive-data/xls/Books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
   <si>
     <t>Мигель де Сервантес Сааведра</t>
   </si>
@@ -222,13 +222,16 @@
     <t>Год издания</t>
   </si>
   <si>
-    <t>Количество томов в год</t>
-  </si>
-  <si>
     <t>38A</t>
   </si>
   <si>
     <t>Том (старая маркировка)</t>
+  </si>
+  <si>
+    <t>Номер первого тома в году</t>
+  </si>
+  <si>
+    <t>Номер последнего тома в году</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,11 +583,12 @@
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -604,10 +608,13 @@
         <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +631,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -641,7 +648,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -658,7 +665,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -675,7 +682,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -692,7 +699,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -709,7 +716,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -726,7 +733,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -743,7 +750,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -760,7 +767,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -777,7 +784,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -794,7 +801,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -811,7 +818,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -828,7 +835,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -845,7 +852,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3038,7 +3045,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -3055,7 +3062,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -3106,7 +3113,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -3123,7 +3130,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3164,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -3174,7 +3181,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3225,7 +3232,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -3242,7 +3249,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -3262,10 +3269,13 @@
         <v>4</v>
       </c>
       <c r="G157">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -3282,13 +3292,16 @@
         <v>1893</v>
       </c>
       <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158">
+        <v>21</v>
+      </c>
+      <c r="H158">
         <v>11</v>
       </c>
-      <c r="G158">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3305,13 +3318,16 @@
         <v>1898</v>
       </c>
       <c r="F159">
+        <v>45</v>
+      </c>
+      <c r="G159">
+        <v>50</v>
+      </c>
+      <c r="H159">
         <v>23</v>
       </c>
-      <c r="G159">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -3328,13 +3344,16 @@
         <v>1900</v>
       </c>
       <c r="F160">
+        <v>56</v>
+      </c>
+      <c r="G160">
+        <v>61</v>
+      </c>
+      <c r="H160">
         <v>29</v>
       </c>
-      <c r="G160">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -3351,13 +3370,16 @@
         <v>1901</v>
       </c>
       <c r="F161">
+        <v>62</v>
+      </c>
+      <c r="G161">
+        <v>67</v>
+      </c>
+      <c r="H161">
         <v>34</v>
       </c>
-      <c r="G161">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -3374,13 +3396,16 @@
         <v>1902</v>
       </c>
       <c r="F162">
+        <v>68</v>
+      </c>
+      <c r="G162">
+        <v>72</v>
+      </c>
+      <c r="H162">
         <v>36</v>
       </c>
-      <c r="G162">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -3396,14 +3421,17 @@
       <c r="E163">
         <v>1903</v>
       </c>
-      <c r="F163" t="s">
-        <v>69</v>
+      <c r="F163">
+        <v>73</v>
       </c>
       <c r="G163">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -3420,7 +3448,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -3437,7 +3465,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3482,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -3465,7 +3493,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -3482,7 +3510,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -3499,7 +3527,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -3510,7 +3538,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +3549,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -3532,7 +3560,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -3543,7 +3571,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>59</v>
       </c>
@@ -3554,7 +3582,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>61</v>
       </c>
@@ -3562,7 +3590,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>62</v>
       </c>

--- a/disk-archive-data/xls/Books.xlsx
+++ b/disk-archive-data/xls/Books.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\disk-archive\disk-archive-data\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -272,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -280,14 +285,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,9 +333,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>1981</v>
@@ -1577,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58">
         <v>1981</v>
@@ -1594,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59">
         <v>1981</v>

--- a/disk-archive-data/xls/Books.xlsx
+++ b/disk-archive-data/xls/Books.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\disk-archive\disk-archive-data\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="25440" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="75">
   <si>
     <t>Мигель де Сервантес Сааведра</t>
   </si>
@@ -237,6 +232,15 @@
   </si>
   <si>
     <t>Номер последнего тома в году</t>
+  </si>
+  <si>
+    <t>Жюль Верн</t>
+  </si>
+  <si>
+    <t>Майн Рид</t>
+  </si>
+  <si>
+    <t>Антон Павлович Чехов</t>
   </si>
 </sst>
 </file>
@@ -277,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -293,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,9 +337,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,6 +3662,414 @@
       </c>
       <c r="E179">
         <v>1988</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>72</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>8</v>
+      </c>
+      <c r="E181">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>72</v>
+      </c>
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>8</v>
+      </c>
+      <c r="E182">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>72</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>8</v>
+      </c>
+      <c r="E183">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>72</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="E184">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>72</v>
+      </c>
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>72</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186">
+        <v>8</v>
+      </c>
+      <c r="E186">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>72</v>
+      </c>
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
+      </c>
+      <c r="E187">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>73</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>73</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>8</v>
+      </c>
+      <c r="E189">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>73</v>
+      </c>
+      <c r="B190" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+      <c r="E190">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
+      </c>
+      <c r="E191">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>73</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>73</v>
+      </c>
+      <c r="B194" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>73</v>
+      </c>
+      <c r="B195" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195">
+        <v>8</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+      <c r="E195">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>74</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>74</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>74</v>
+      </c>
+      <c r="B198" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>74</v>
+      </c>
+      <c r="B199" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>8</v>
+      </c>
+      <c r="E199">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>74</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>74</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>74</v>
+      </c>
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>8</v>
+      </c>
+      <c r="E203">
+        <v>1970</v>
       </c>
     </row>
   </sheetData>

--- a/disk-archive-data/xls/Books.xlsx
+++ b/disk-archive-data/xls/Books.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\disk-archive\disk-archive-data\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="25440" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="25440" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="249">
   <si>
     <t>Мигель де Сервантес Сааведра</t>
   </si>
@@ -241,12 +246,534 @@
   </si>
   <si>
     <t>Антон Павлович Чехов</t>
+  </si>
+  <si>
+    <t>Валентин Пикуль</t>
+  </si>
+  <si>
+    <t>М.В. Гоголь</t>
+  </si>
+  <si>
+    <t>Избранные произведения в XII томах</t>
+  </si>
+  <si>
+    <t>Вечори на хуторі біля Диканьки</t>
+  </si>
+  <si>
+    <t>Федерико Гараси Лорка</t>
+  </si>
+  <si>
+    <t>избранное</t>
+  </si>
+  <si>
+    <t>Беленький Г.И., Николаев П.А., Пузиков А.И., Щербина В.Р.</t>
+  </si>
+  <si>
+    <t>Руссская литература XI-XVIII вв.</t>
+  </si>
+  <si>
+    <t>Абашидзе И.В.</t>
+  </si>
+  <si>
+    <t>бибилиотека всемирной литературы</t>
+  </si>
+  <si>
+    <t>Дмитрий Жуков</t>
+  </si>
+  <si>
+    <t>На семи холмах</t>
+  </si>
+  <si>
+    <t>Анастасия Цветаева</t>
+  </si>
+  <si>
+    <t>Воспоминания</t>
+  </si>
+  <si>
+    <t>Первая любовь</t>
+  </si>
+  <si>
+    <t>Н.Д.Телешов</t>
+  </si>
+  <si>
+    <t>Рассказы Сказки Легенды</t>
+  </si>
+  <si>
+    <t>Д.И.Фонвизин, А.Н. Радищев, И.А. Крылов</t>
+  </si>
+  <si>
+    <t>Недоросль, Путишествие из Петербурга в Москву, Подщипа</t>
+  </si>
+  <si>
+    <t>Владимир Набоков</t>
+  </si>
+  <si>
+    <t>Машенька, Защита Лужина, Приглашение на казнь, Другие берега</t>
+  </si>
+  <si>
+    <t>Олесь Гончар</t>
+  </si>
+  <si>
+    <t>Собор</t>
+  </si>
+  <si>
+    <t>В.Шекспир</t>
+  </si>
+  <si>
+    <t>Избранное</t>
+  </si>
+  <si>
+    <t>И.А. Бунин</t>
+  </si>
+  <si>
+    <t>Поэзия и проза</t>
+  </si>
+  <si>
+    <t>Ф.М. Достоевский</t>
+  </si>
+  <si>
+    <t>Дядюшкин сон</t>
+  </si>
+  <si>
+    <t>Пером и шпагой</t>
+  </si>
+  <si>
+    <t>А.Н. Толстой</t>
+  </si>
+  <si>
+    <t>Пьесы</t>
+  </si>
+  <si>
+    <t>Вильям Сароян</t>
+  </si>
+  <si>
+    <t>Приключения Весли Джексона, рассказы</t>
+  </si>
+  <si>
+    <t>Мартин Андерсен Нексе</t>
+  </si>
+  <si>
+    <t>Ценою жизни</t>
+  </si>
+  <si>
+    <t>М.Ю.Лермонтов</t>
+  </si>
+  <si>
+    <t>Стихотворения, герой нашего времени</t>
+  </si>
+  <si>
+    <t>Анна Ахматова</t>
+  </si>
+  <si>
+    <t>Вечерь</t>
+  </si>
+  <si>
+    <t>Карел Чапек</t>
+  </si>
+  <si>
+    <t>рассказы</t>
+  </si>
+  <si>
+    <t>Н.Заболоцкий</t>
+  </si>
+  <si>
+    <t>Столбцы и поэмы стихотворения</t>
+  </si>
+  <si>
+    <t>А.Ф.Лосев</t>
+  </si>
+  <si>
+    <t>Дерзание духа</t>
+  </si>
+  <si>
+    <t>Л.Н.Толстой</t>
+  </si>
+  <si>
+    <t>Мысли мудрых людей</t>
+  </si>
+  <si>
+    <t>Жорж Сименон</t>
+  </si>
+  <si>
+    <t>Под страхом смерти</t>
+  </si>
+  <si>
+    <t>Десять Негритят</t>
+  </si>
+  <si>
+    <t>Оноре Де Бальзак</t>
+  </si>
+  <si>
+    <t>Шагреневая кожа</t>
+  </si>
+  <si>
+    <t>Э.С.Паперная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парнас  дыбом </t>
+  </si>
+  <si>
+    <t>Тарас Шевченко</t>
+  </si>
+  <si>
+    <t>Лирика</t>
+  </si>
+  <si>
+    <t>Петр Северов</t>
+  </si>
+  <si>
+    <t>Легенда о черном Алмазе</t>
+  </si>
+  <si>
+    <t>К.Паустовский</t>
+  </si>
+  <si>
+    <t>Струна</t>
+  </si>
+  <si>
+    <t>К.Симонов</t>
+  </si>
+  <si>
+    <t>Дни и ночи</t>
+  </si>
+  <si>
+    <t>Григорий Сковорода</t>
+  </si>
+  <si>
+    <t>Стихи, песни, байки</t>
+  </si>
+  <si>
+    <t>Марко Вовчок</t>
+  </si>
+  <si>
+    <t>Народні оповідання</t>
+  </si>
+  <si>
+    <t>Олесь Бенюх</t>
+  </si>
+  <si>
+    <t>Правитель империи</t>
+  </si>
+  <si>
+    <t>И.Кеплер</t>
+  </si>
+  <si>
+    <t>О шестиугольных снежинках</t>
+  </si>
+  <si>
+    <t>А.И. Герцен</t>
+  </si>
+  <si>
+    <t>Сорока-ворона</t>
+  </si>
+  <si>
+    <t>А.М.Никольский</t>
+  </si>
+  <si>
+    <t>Занимательная зоология</t>
+  </si>
+  <si>
+    <t>Д.Пристли</t>
+  </si>
+  <si>
+    <t>Мгла над Гретли</t>
+  </si>
+  <si>
+    <t>С.Т. Аксаков</t>
+  </si>
+  <si>
+    <t>Семейная хроника, Детские годы Багрова-внучка</t>
+  </si>
+  <si>
+    <t>Маріо П"юзо</t>
+  </si>
+  <si>
+    <t>Хрещений батько</t>
+  </si>
+  <si>
+    <t>Андре Моруа</t>
+  </si>
+  <si>
+    <t>Олимпио или жизнь Виктора Гюго</t>
+  </si>
+  <si>
+    <t>Александр Беляев</t>
+  </si>
+  <si>
+    <t>Человек-Амфибия</t>
+  </si>
+  <si>
+    <t>Гюстав Флобер</t>
+  </si>
+  <si>
+    <t>Госпожа Бовари</t>
+  </si>
+  <si>
+    <t>Евгений Карнович</t>
+  </si>
+  <si>
+    <t>Самозванные дети, придворное кружево</t>
+  </si>
+  <si>
+    <t>Сомерсет Моэм</t>
+  </si>
+  <si>
+    <t>Луна и грош, театр</t>
+  </si>
+  <si>
+    <t>А.С.Серафимович</t>
+  </si>
+  <si>
+    <t>Рассказы и очерки</t>
+  </si>
+  <si>
+    <t>Андрй Вознесениский</t>
+  </si>
+  <si>
+    <t>Стихотворения и поэмы</t>
+  </si>
+  <si>
+    <t>Николай Гумелев</t>
+  </si>
+  <si>
+    <t>стихотворения</t>
+  </si>
+  <si>
+    <t>Николай Клюев</t>
+  </si>
+  <si>
+    <t>Чудное мгновенье</t>
+  </si>
+  <si>
+    <t>Любовная лирика русских поэтов</t>
+  </si>
+  <si>
+    <t>Леонид Леонов</t>
+  </si>
+  <si>
+    <t>Взятие великошумска повести и пьесы</t>
+  </si>
+  <si>
+    <t>Карл Саган</t>
+  </si>
+  <si>
+    <t>Драконы Эдема</t>
+  </si>
+  <si>
+    <t>Ф.И. Шаляпин</t>
+  </si>
+  <si>
+    <t>Страницы из моей жизни</t>
+  </si>
+  <si>
+    <t>Виницент Шикула</t>
+  </si>
+  <si>
+    <t>Не аплодируйте на концертах</t>
+  </si>
+  <si>
+    <t>Смерть Ивана Ильича</t>
+  </si>
+  <si>
+    <t>Н.Г.Помяловский</t>
+  </si>
+  <si>
+    <t>Мещенское счастье</t>
+  </si>
+  <si>
+    <t>Вальтер Скотт</t>
+  </si>
+  <si>
+    <t>Пертская красавица</t>
+  </si>
+  <si>
+    <t>Бригита Йосифова</t>
+  </si>
+  <si>
+    <t>Декабристы</t>
+  </si>
+  <si>
+    <t>О.Генри</t>
+  </si>
+  <si>
+    <t>Короли и капуста</t>
+  </si>
+  <si>
+    <t>Расссказы</t>
+  </si>
+  <si>
+    <t>Н.М.Карамзин</t>
+  </si>
+  <si>
+    <t>Наталья боярская дочь</t>
+  </si>
+  <si>
+    <t>А.П. Чехов</t>
+  </si>
+  <si>
+    <t>Мальчики</t>
+  </si>
+  <si>
+    <t>Ю.Я.Перепелкин</t>
+  </si>
+  <si>
+    <t>Тайна золотога гроба</t>
+  </si>
+  <si>
+    <t>Туве Янссон</t>
+  </si>
+  <si>
+    <t>Серый шелк</t>
+  </si>
+  <si>
+    <t>Вололдимир Довбня</t>
+  </si>
+  <si>
+    <t>Січові Стрілці</t>
+  </si>
+  <si>
+    <t>Николай Костомаров</t>
+  </si>
+  <si>
+    <t>Исторические монографии и исследования</t>
+  </si>
+  <si>
+    <t>Былое и думы</t>
+  </si>
+  <si>
+    <t>А.И.Герцен</t>
+  </si>
+  <si>
+    <t>Кто виноват?</t>
+  </si>
+  <si>
+    <t>Анатолий рыбаков</t>
+  </si>
+  <si>
+    <t>Дети арбата</t>
+  </si>
+  <si>
+    <t>А.М Горький</t>
+  </si>
+  <si>
+    <t>Кайко Такэси</t>
+  </si>
+  <si>
+    <t>Японская трехгрошовая опера</t>
+  </si>
+  <si>
+    <t>Джанни Родари, Памела Траверси, Антуан де Сент-Экзюпери</t>
+  </si>
+  <si>
+    <t>Приключения Чиполлино, Мэри Поппинс, Маленький принц</t>
+  </si>
+  <si>
+    <t>Д.Гусаров, В.Распутин, В.Быков</t>
+  </si>
+  <si>
+    <t>За чертой милосердия, Живи и помни, Знак беды</t>
+  </si>
+  <si>
+    <t>Ирвинг Стоун</t>
+  </si>
+  <si>
+    <t>Жажда жизни</t>
+  </si>
+  <si>
+    <t>Николай Задорнов</t>
+  </si>
+  <si>
+    <t>Гонконг</t>
+  </si>
+  <si>
+    <t>А.И.Куприн</t>
+  </si>
+  <si>
+    <t>Михаил Старицкий</t>
+  </si>
+  <si>
+    <t>Разбойник Кармелюк</t>
+  </si>
+  <si>
+    <t>В.О.Ключевский</t>
+  </si>
+  <si>
+    <t>Исторические портреты</t>
+  </si>
+  <si>
+    <t>Происхождение</t>
+  </si>
+  <si>
+    <t>И.К.Кондратьев</t>
+  </si>
+  <si>
+    <t>Драма на лубянке, Божье знаменье</t>
+  </si>
+  <si>
+    <t>Избранные рассказы</t>
+  </si>
+  <si>
+    <t>Е.Б.Черняк</t>
+  </si>
+  <si>
+    <t>Судьи и заговорщики</t>
+  </si>
+  <si>
+    <t>А.Гайдар</t>
+  </si>
+  <si>
+    <t>собрание сочинений в четырех томах</t>
+  </si>
+  <si>
+    <t>Эмили Бронте</t>
+  </si>
+  <si>
+    <t>Грозовой перевал</t>
+  </si>
+  <si>
+    <t>Жюлб Верн</t>
+  </si>
+  <si>
+    <t>Путишествие и приключения капитана гаттераса</t>
+  </si>
+  <si>
+    <t>И.И.Пущин</t>
+  </si>
+  <si>
+    <t>Записки о Пушкине, письма</t>
+  </si>
+  <si>
+    <t>Дети капитана гранта</t>
+  </si>
+  <si>
+    <t>Г.И. Успенский</t>
+  </si>
+  <si>
+    <t>собрание сочинений в девяти томах</t>
+  </si>
+  <si>
+    <t>И.Бабель</t>
+  </si>
+  <si>
+    <t>Избранное1</t>
+  </si>
+  <si>
+    <t>Антуан де Сэнт-Экзюпери</t>
+  </si>
+  <si>
+    <t>Планета людей</t>
+  </si>
+  <si>
+    <t>Эмиль Золя</t>
+  </si>
+  <si>
+    <t>Радость жизни, Творчество</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +899,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +951,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -583,24 +1144,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -626,7 +1187,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +1204,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -660,7 +1221,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -677,7 +1238,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -694,7 +1255,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -711,7 +1272,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -728,7 +1289,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -745,7 +1306,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -762,7 +1323,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -779,7 +1340,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -796,7 +1357,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -813,7 +1374,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -830,7 +1391,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -847,7 +1408,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -864,7 +1425,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -881,7 +1442,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -898,7 +1459,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -915,7 +1476,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -932,7 +1493,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -949,7 +1510,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -966,7 +1527,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -983,7 +1544,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +1561,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +1578,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1595,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1612,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1629,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1085,7 +1646,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1663,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1119,7 +1680,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1697,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1714,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1170,7 +1731,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1748,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1765,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1221,7 +1782,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1799,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1816,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1833,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1289,7 +1850,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1306,7 +1867,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1884,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1901,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1918,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1935,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1952,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1969,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1986,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +2003,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +2020,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +2037,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +2054,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +2071,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +2088,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +2105,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +2122,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -1578,7 +2139,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -1595,7 +2156,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -1612,7 +2173,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +2190,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +2207,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +2224,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +2241,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -1697,7 +2258,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -1714,7 +2275,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +2292,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +2309,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1765,7 +2326,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +2343,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -1799,7 +2360,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +2377,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -1833,7 +2394,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +2411,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -1867,7 +2428,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +2445,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -1901,7 +2462,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -1918,7 +2479,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -1935,7 +2496,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -1952,7 +2513,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -1969,7 +2530,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +2547,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -2003,7 +2564,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -2020,7 +2581,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2037,7 +2598,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -2054,7 +2615,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -2071,7 +2632,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -2088,7 +2649,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -2105,7 +2666,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -2122,7 +2683,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -2139,7 +2700,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -2156,7 +2717,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -2173,7 +2734,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -2190,7 +2751,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -2207,7 +2768,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -2224,7 +2785,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -2241,7 +2802,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -2258,7 +2819,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +2836,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2292,7 +2853,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -2309,7 +2870,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -2326,7 +2887,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -2343,7 +2904,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2360,7 +2921,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -2377,7 +2938,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2955,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -2411,7 +2972,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -2428,7 +2989,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -2445,7 +3006,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -2462,7 +3023,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -2479,7 +3040,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -2496,7 +3057,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -2513,7 +3074,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +3091,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -2547,7 +3108,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -2564,7 +3125,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -2581,7 +3142,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -2598,7 +3159,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -2615,7 +3176,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -2632,7 +3193,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -2649,7 +3210,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>35</v>
       </c>
@@ -2666,7 +3227,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -2683,7 +3244,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -2700,7 +3261,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>37</v>
       </c>
@@ -2717,7 +3278,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -2734,7 +3295,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -2751,7 +3312,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>37</v>
       </c>
@@ -2768,7 +3329,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -2785,7 +3346,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -2802,7 +3363,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -2819,7 +3380,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -2836,7 +3397,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>38</v>
       </c>
@@ -2853,7 +3414,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -2870,7 +3431,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -2887,7 +3448,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -2904,7 +3465,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>38</v>
       </c>
@@ -2921,7 +3482,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>38</v>
       </c>
@@ -2938,7 +3499,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -2955,7 +3516,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +3533,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -2989,7 +3550,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -3006,7 +3567,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -3023,7 +3584,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -3040,7 +3601,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -3057,7 +3618,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -3074,7 +3635,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -3091,7 +3652,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -3108,7 +3669,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -3125,7 +3686,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -3142,7 +3703,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -3159,7 +3720,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>40</v>
       </c>
@@ -3176,7 +3737,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -3193,7 +3754,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -3210,7 +3771,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -3227,7 +3788,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3244,7 +3805,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -3261,7 +3822,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -3287,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -3313,7 +3874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3339,7 +3900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -3365,7 +3926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -3391,7 +3952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -3417,7 +3978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -3443,7 +4004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -3460,7 +4021,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -3477,7 +4038,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +4055,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -3505,7 +4066,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -3522,7 +4083,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -3539,7 +4100,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -3550,7 +4111,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>53</v>
       </c>
@@ -3561,7 +4122,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -3572,7 +4133,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -3583,7 +4144,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>59</v>
       </c>
@@ -3594,7 +4155,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>61</v>
       </c>
@@ -3602,7 +4163,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -3613,7 +4174,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>65</v>
       </c>
@@ -3630,7 +4191,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -3647,7 +4208,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>66</v>
       </c>
@@ -3664,7 +4225,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>72</v>
       </c>
@@ -3681,7 +4242,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>72</v>
       </c>
@@ -3698,7 +4259,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>72</v>
       </c>
@@ -3715,7 +4276,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>72</v>
       </c>
@@ -3732,7 +4293,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>72</v>
       </c>
@@ -3749,7 +4310,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>72</v>
       </c>
@@ -3766,7 +4327,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -3783,7 +4344,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -3800,7 +4361,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>73</v>
       </c>
@@ -3817,7 +4378,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>73</v>
       </c>
@@ -3834,7 +4395,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>73</v>
       </c>
@@ -3851,7 +4412,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -3868,7 +4429,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>73</v>
       </c>
@@ -3885,7 +4446,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>73</v>
       </c>
@@ -3902,7 +4463,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>73</v>
       </c>
@@ -3919,7 +4480,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -3936,7 +4497,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>74</v>
       </c>
@@ -3953,7 +4514,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>74</v>
       </c>
@@ -3970,7 +4531,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>74</v>
       </c>
@@ -3987,7 +4548,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>74</v>
       </c>
@@ -4004,7 +4565,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>74</v>
       </c>
@@ -4021,7 +4582,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>74</v>
       </c>
@@ -4038,7 +4599,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>74</v>
       </c>
@@ -4055,7 +4616,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>74</v>
       </c>
@@ -4070,6 +4631,1604 @@
       </c>
       <c r="E203">
         <v>1970</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B204" t="s">
+        <v>77</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B205" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>79</v>
+      </c>
+      <c r="B206" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>83</v>
+      </c>
+      <c r="B208" t="s">
+        <v>84</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>85</v>
+      </c>
+      <c r="B209" t="s">
+        <v>86</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>87</v>
+      </c>
+      <c r="B210" t="s">
+        <v>88</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>39</v>
+      </c>
+      <c r="B211" t="s">
+        <v>89</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>90</v>
+      </c>
+      <c r="B212" t="s">
+        <v>91</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>92</v>
+      </c>
+      <c r="B213" t="s">
+        <v>93</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>94</v>
+      </c>
+      <c r="B214" t="s">
+        <v>95</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>96</v>
+      </c>
+      <c r="B215" t="s">
+        <v>97</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>98</v>
+      </c>
+      <c r="B216" t="s">
+        <v>99</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>100</v>
+      </c>
+      <c r="B217" t="s">
+        <v>101</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>102</v>
+      </c>
+      <c r="B218" t="s">
+        <v>103</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>105</v>
+      </c>
+      <c r="B219" t="s">
+        <v>106</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>75</v>
+      </c>
+      <c r="B220" t="s">
+        <v>104</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" t="s">
+        <v>108</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>109</v>
+      </c>
+      <c r="B222" t="s">
+        <v>110</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>111</v>
+      </c>
+      <c r="B223" t="s">
+        <v>112</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>113</v>
+      </c>
+      <c r="B224" t="s">
+        <v>114</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>115</v>
+      </c>
+      <c r="B225" t="s">
+        <v>116</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>117</v>
+      </c>
+      <c r="B226" t="s">
+        <v>118</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>119</v>
+      </c>
+      <c r="B227" t="s">
+        <v>120</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>121</v>
+      </c>
+      <c r="B228" t="s">
+        <v>122</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>123</v>
+      </c>
+      <c r="B229" t="s">
+        <v>124</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>50</v>
+      </c>
+      <c r="B230" t="s">
+        <v>125</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231" t="s">
+        <v>127</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" t="s">
+        <v>129</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>130</v>
+      </c>
+      <c r="B233" t="s">
+        <v>131</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>132</v>
+      </c>
+      <c r="B234" t="s">
+        <v>133</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>134</v>
+      </c>
+      <c r="B235" t="s">
+        <v>135</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>136</v>
+      </c>
+      <c r="B236" t="s">
+        <v>137</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>138</v>
+      </c>
+      <c r="B237" t="s">
+        <v>139</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>140</v>
+      </c>
+      <c r="B238" t="s">
+        <v>141</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>142</v>
+      </c>
+      <c r="B239" t="s">
+        <v>143</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>144</v>
+      </c>
+      <c r="B240" t="s">
+        <v>145</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>146</v>
+      </c>
+      <c r="B241" t="s">
+        <v>147</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>148</v>
+      </c>
+      <c r="B242" t="s">
+        <v>149</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>150</v>
+      </c>
+      <c r="B243" t="s">
+        <v>151</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" t="s">
+        <v>153</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>154</v>
+      </c>
+      <c r="B245" t="s">
+        <v>155</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>156</v>
+      </c>
+      <c r="B246" t="s">
+        <v>157</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>158</v>
+      </c>
+      <c r="B247" t="s">
+        <v>159</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>160</v>
+      </c>
+      <c r="B248" t="s">
+        <v>161</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>162</v>
+      </c>
+      <c r="B249" t="s">
+        <v>163</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>164</v>
+      </c>
+      <c r="B250" t="s">
+        <v>165</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>166</v>
+      </c>
+      <c r="B251" t="s">
+        <v>167</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>168</v>
+      </c>
+      <c r="B252" t="s">
+        <v>169</v>
+      </c>
+      <c r="C252">
+        <v>15</v>
+      </c>
+      <c r="D252">
+        <v>20</v>
+      </c>
+      <c r="E252">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>168</v>
+      </c>
+      <c r="B253" t="s">
+        <v>169</v>
+      </c>
+      <c r="C253">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>20</v>
+      </c>
+      <c r="E253">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>170</v>
+      </c>
+      <c r="B254" t="s">
+        <v>171</v>
+      </c>
+      <c r="C254">
+        <v>9</v>
+      </c>
+      <c r="D254">
+        <v>15</v>
+      </c>
+      <c r="E254">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>172</v>
+      </c>
+      <c r="B255" t="s">
+        <v>169</v>
+      </c>
+      <c r="C255">
+        <v>14</v>
+      </c>
+      <c r="D255">
+        <v>15</v>
+      </c>
+      <c r="E255">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>173</v>
+      </c>
+      <c r="B256" t="s">
+        <v>174</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>175</v>
+      </c>
+      <c r="B257" t="s">
+        <v>176</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>177</v>
+      </c>
+      <c r="B258" t="s">
+        <v>178</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>179</v>
+      </c>
+      <c r="B259" t="s">
+        <v>180</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>181</v>
+      </c>
+      <c r="B260" t="s">
+        <v>182</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>121</v>
+      </c>
+      <c r="B261" t="s">
+        <v>183</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>184</v>
+      </c>
+      <c r="B262" t="s">
+        <v>185</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>186</v>
+      </c>
+      <c r="B263" t="s">
+        <v>187</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>188</v>
+      </c>
+      <c r="B264" t="s">
+        <v>189</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>190</v>
+      </c>
+      <c r="B265" t="s">
+        <v>191</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>105</v>
+      </c>
+      <c r="B266" t="s">
+        <v>192</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>193</v>
+      </c>
+      <c r="B267" t="s">
+        <v>194</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>195</v>
+      </c>
+      <c r="B268" t="s">
+        <v>196</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>197</v>
+      </c>
+      <c r="B269" t="s">
+        <v>198</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>199</v>
+      </c>
+      <c r="B270" t="s">
+        <v>200</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>201</v>
+      </c>
+      <c r="B271" t="s">
+        <v>202</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>203</v>
+      </c>
+      <c r="B272" t="s">
+        <v>204</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>146</v>
+      </c>
+      <c r="B273" t="s">
+        <v>205</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>206</v>
+      </c>
+      <c r="B274" t="s">
+        <v>207</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>208</v>
+      </c>
+      <c r="B275" t="s">
+        <v>209</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>210</v>
+      </c>
+      <c r="B276" t="s">
+        <v>106</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>211</v>
+      </c>
+      <c r="B277" t="s">
+        <v>212</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>213</v>
+      </c>
+      <c r="B278" t="s">
+        <v>214</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>215</v>
+      </c>
+      <c r="B279" t="s">
+        <v>216</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>217</v>
+      </c>
+      <c r="B280" t="s">
+        <v>218</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>219</v>
+      </c>
+      <c r="B281" t="s">
+        <v>220</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>221</v>
+      </c>
+      <c r="B282" t="s">
+        <v>49</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>222</v>
+      </c>
+      <c r="B283" t="s">
+        <v>223</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>224</v>
+      </c>
+      <c r="B284" t="s">
+        <v>225</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>217</v>
+      </c>
+      <c r="B285" t="s">
+        <v>226</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>227</v>
+      </c>
+      <c r="B286" t="s">
+        <v>228</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>121</v>
+      </c>
+      <c r="B287" t="s">
+        <v>229</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>230</v>
+      </c>
+      <c r="B288" t="s">
+        <v>231</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>232</v>
+      </c>
+      <c r="B289" t="s">
+        <v>233</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>4</v>
+      </c>
+      <c r="E289">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>234</v>
+      </c>
+      <c r="B290" t="s">
+        <v>235</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>236</v>
+      </c>
+      <c r="B291" t="s">
+        <v>237</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>238</v>
+      </c>
+      <c r="B292" t="s">
+        <v>239</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>72</v>
+      </c>
+      <c r="B293" t="s">
+        <v>240</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>241</v>
+      </c>
+      <c r="B294" t="s">
+        <v>242</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>9</v>
+      </c>
+      <c r="E294">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>243</v>
+      </c>
+      <c r="B295" t="s">
+        <v>244</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>245</v>
+      </c>
+      <c r="B296" t="s">
+        <v>246</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>247</v>
+      </c>
+      <c r="B297" t="s">
+        <v>248</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1986</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +6242,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4095,7 +6254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
